--- a/biology/Zoologie/Limnophila_elegans/Limnophila_elegans.xlsx
+++ b/biology/Zoologie/Limnophila_elegans/Limnophila_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Limnophila elegans est une espèce fossile d'insectes diptères de la famille des Limoniidae et du genre Limnophila.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Limnophila elegans est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Fossiles
-Le spécimen holotype échantillon 6 de la collection de l'Institut géologique de Marseille vient des calcaires en plaquette de la localité de Camoins-les-Bains à Marseille. Il a un cotype l'échantillon 8 de la même collection et de la même provenance.
-Étymologie
-L'épithète spécifique elegans signifie en latin « élégant ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Limnophila elegans est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -543,19 +553,170 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen holotype échantillon 6 de la collection de l'Institut géologique de Marseille vient des calcaires en plaquette de la localité de Camoins-les-Bains à Marseille. Il a un cotype l'échantillon 8 de la même collection et de la même provenance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Limnophila_elegans</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Limnophila_elegans</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique elegans signifie en latin « élégant ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Limnophila_elegans</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Limnophila_elegans</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 1] : 
-« Petit Insecte brunâtre. Tête subtriangulaire, front allongé, yeux non visibles, antennes longues, grand nombre de segments homonomes ; l'antenne gauche est cassée, le fragment est placé au dessous de la tête ; tête inclinée par rapport au thorax. Thorax fortement bombé. Abdomen allongé ; sept segments ; tergites de teinte plus sombre que les sternites ; apex arrondi ; couvert de nombreux poils fins. Pattes grêles, velues, cils plus longs sur fémur et tibia, tarses fins et longs. Ailes manquent. »[1].
-Dimensions
-La longueur de l'insecte est de 3 mm et la longueur de l'abdomen de 2 mm[1].
-Affinités
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Petit Insecte brunâtre. Tête subtriangulaire, front allongé, yeux non visibles, antennes longues, grand nombre de segments homonomes ; l'antenne gauche est cassée, le fragment est placé au dessous de la tête ; tête inclinée par rapport au thorax. Thorax fortement bombé. Abdomen allongé ; sept segments ; tergites de teinte plus sombre que les sternites ; apex arrondi ; couvert de nombreux poils fins. Pattes grêles, velues, cils plus longs sur fémur et tibia, tarses fins et longs. Ailes manquent. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Limnophila_elegans</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Limnophila_elegans</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur de l'insecte est de 3 mm et la longueur de l'abdomen de 2 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Limnophila_elegans</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Limnophila_elegans</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 « L'échantillon avait été étiqueté Praesepsis minutus par le Dr Abeille de Perrin. Mais les antennes montrent d'une façon certaine qu'il s'agit d'un diptère Nématocère et non d'un Sepsinae ; la conformation des pattes exclut aussi une pareille position. 
-En l'absence d'ailes, la détermination ne peut être faite avec soin. Nous avons provisoirement rangé cet échantillon dans les Limnophilini. »[1].
+En l'absence d'ailes, la détermination ne peut être faite avec soin. Nous avons provisoirement rangé cet échantillon dans les Limnophilini. ».
 </t>
         </is>
       </c>
